--- a/data/TestConfiguration.xlsx
+++ b/data/TestConfiguration.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RBT\Downloads\Solverminds_DISTILL\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitPush\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0DB7AF9-D259-41E5-AA4F-E4B313ABD64C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -95,16 +96,16 @@
     <t>V1.0.0</t>
   </si>
   <si>
-    <t>DISTILL</t>
-  </si>
-  <si>
-    <t>https://distillautomation-live.solverminds.net/</t>
+    <t>https://lrpv2atesting.solverminds.net</t>
+  </si>
+  <si>
+    <t>Solverminds_VSS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -240,14 +241,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -262,11 +263,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -403,11 +400,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C10" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:C10" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
   <tableColumns count="3">
-    <tableColumn id="1" name="Description" dataDxfId="2"/>
-    <tableColumn id="2" name="Components" dataDxfId="1"/>
-    <tableColumn id="3" name="Value" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Description" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Components" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Value" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -709,11 +706,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -742,7 +739,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -798,10 +795,10 @@
       <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>18</v>
       </c>
     </row>
@@ -809,42 +806,42 @@
       <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="7" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Remote,local"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"1,2,3,4,5,6,7,8,9,10"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"Chrome,Firefox,IE"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"Sequential,Parallel"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C8" r:id="rId1"/>
-    <hyperlink ref="C2" r:id="rId2"/>
+    <hyperlink ref="C8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/data/TestConfiguration.xlsx
+++ b/data/TestConfiguration.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RBT\Downloads\Solverminds_DISTILL\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Framework\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -95,10 +95,10 @@
     <t>V1.0.0</t>
   </si>
   <si>
-    <t>DISTILL</t>
-  </si>
-  <si>
-    <t>https://distillautomation-live.solverminds.net/</t>
+    <t>ESL</t>
+  </si>
+  <si>
+    <t>https://lrpv2atesting.solverminds.net/index</t>
   </si>
 </sst>
 </file>
@@ -713,7 +713,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
